--- a/Dokumente/Threadvergleich.xlsx
+++ b/Dokumente/Threadvergleich.xlsx
@@ -87,6 +87,462 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="de-DE"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.23630853261955048"/>
+          <c:y val="3.9132741928500775E-2"/>
+          <c:w val="0.74691185468099952"/>
+          <c:h val="0.74724742532413102"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$B$24</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>4 Threads</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Tabelle1!$G$2:$G$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>21000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>26000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>31000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>36000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>41000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>46000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>51000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>56000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>61000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>66000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>71000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>76000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>81000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>86000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>91000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>96000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$D$2:$D$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>69.265789999999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>73.761690000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>69.949119999999994</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>72.108750000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>76.35942</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>70.106414999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>74.044030000000006</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>73.136184999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>75.122720000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>72.261790000000005</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>66.255539999999996</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>68.850043999999997</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>70.698660000000004</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>67.991039999999998</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>70.743769999999998</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>71.081270000000004</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>67.392455999999996</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>67.362160000000003</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>69.636899999999997</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>67.750739999999993</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$H$24</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>8 Threads</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Tabelle1!$G$2:$G$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>21000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>26000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>31000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>36000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>41000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>46000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>51000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>56000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>61000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>66000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>71000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>76000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>81000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>86000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>91000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>96000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$J$2:$J$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>81.006489999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>84.267889999999994</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>85.758690000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>78.374459999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>76.733400000000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>82.502030000000005</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>82.97475</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80.750960000000006</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>80.612269999999995</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>82.891555999999994</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>77.757940000000005</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>81.662229999999994</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>81.462509999999995</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>83.977324999999993</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>82.648089999999996</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>82.217444999999998</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>82.451809999999995</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>81.914180000000002</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>82.053179999999998</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>80.807075999999995</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="60420096"/>
+        <c:axId val="60421632"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="60420096"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>Steps of RandomWalk</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="60421632"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="60421632"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>SpeedUp[%]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="60420096"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="2.4327830675580132E-2"/>
+          <c:y val="0.83102693959655549"/>
+          <c:w val="0.15237547899957021"/>
+          <c:h val="0.12747268240317142"/>
+        </c:manualLayout>
+      </c:layout>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>544286</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>21771</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>10885</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>108857</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Diagramm 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -376,8 +832,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="N23" sqref="N23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
@@ -939,6 +1395,7 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
